--- a/Test/Web/Test/Web/wwwroot/uploads/Employees-20220830131756588.xlsx
+++ b/Test/Web/Test/Web/wwwroot/uploads/Employees-20220830131756588.xlsx
@@ -129,8 +129,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -415,7 +415,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -462,10 +462,10 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>36647</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -485,10 +485,10 @@
       <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>36719</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -508,10 +508,10 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>36719</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
